--- a/InputFile/InputData.xlsx
+++ b/InputFile/InputData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempoSmokeAutoCode\SmokeTricentisApp\InputFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempoSmokeAutoCode\SmokeTricentisApp\Project\tricentisApp\InputFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F3B6FB-7EC9-4F45-A190-7B21686F91B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3052F-EA44-431F-89A1-4861BC664E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginScreen" sheetId="1" r:id="rId1"/>
@@ -93,25 +93,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,19 +119,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +431,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,11 +444,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E4234456-3D89-4631-B71A-D93655C098DB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -496,7 +475,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -510,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1BD8B3-7BC3-4794-8950-6D3FA2731F32}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +551,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>600001</v>
       </c>
     </row>
@@ -580,7 +559,7 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>9159999626</v>
       </c>
     </row>
